--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.8.3.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.8.3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19554980-B84E-47C6-A696-2BA3532762B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4074DA7-40E1-4F02-B4E3-AD6BE33F01CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,6 +698,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -725,8 +726,8 @@
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:L2"/>
     <mergeCell ref="G3:M3"/>
+    <mergeCell ref="G2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
